--- a/payslips.xlsx
+++ b/payslips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,6 +466,16 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Base Salary</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Overtime Salary</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>Total Salary</t>
         </is>
       </c>
@@ -482,19 +492,223 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1234</v>
+        <v>1100</v>
       </c>
       <c r="D2" t="n">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G2" t="n">
+        <v>5500</v>
+      </c>
+      <c r="H2" t="n">
+        <v>400</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>OCELOT</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>REVOLVER</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1200</v>
+      </c>
+      <c r="D3" t="n">
+        <v>100</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4800</v>
+      </c>
+      <c r="H3" t="n">
+        <v>200</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>SILVERBURGH</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>MERYL</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D4" t="n">
+        <v>200</v>
+      </c>
+      <c r="E4" t="n">
         <v>3</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6000</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>SNAKE</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>SOLID</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D5" t="n">
+        <v>150</v>
+      </c>
+      <c r="E5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>7500</v>
+      </c>
+      <c r="H5" t="n">
+        <v>150</v>
+      </c>
+      <c r="I5" t="n">
+        <v>7650</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>SNAKE</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1400</v>
+      </c>
+      <c r="D6" t="n">
+        <v>120</v>
+      </c>
+      <c r="E6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>8400</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>SNAKE</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>SOLIDUS</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1700</v>
+      </c>
+      <c r="D7" t="n">
+        <v>140</v>
+      </c>
+      <c r="E7" t="n">
         <v>3</v>
       </c>
-      <c r="G2" t="n">
-        <v>4071</v>
+      <c r="F7" t="n">
+        <v>7</v>
+      </c>
+      <c r="G7" t="n">
+        <v>5100</v>
+      </c>
+      <c r="H7" t="n">
+        <v>980</v>
+      </c>
+      <c r="I7" t="n">
+        <v>6080</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>SNAKE</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>NAKED</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1300</v>
+      </c>
+      <c r="D8" t="n">
+        <v>100</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3</v>
+      </c>
+      <c r="F8" t="n">
+        <v>10</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3900</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4900</v>
       </c>
     </row>
   </sheetData>

--- a/payslips.xlsx
+++ b/payslips.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,25 +492,25 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1100</v>
+        <v>1234</v>
       </c>
       <c r="D2" t="n">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="E2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F2" t="n">
         <v>5</v>
       </c>
-      <c r="F2" t="n">
-        <v>4</v>
-      </c>
       <c r="G2" t="n">
-        <v>5500</v>
+        <v>3702</v>
       </c>
       <c r="H2" t="n">
-        <v>400</v>
+        <v>615</v>
       </c>
       <c r="I2" t="n">
-        <v>5900</v>
+        <v>4317</v>
       </c>
     </row>
     <row r="3">
@@ -525,25 +525,25 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1200</v>
+        <v>2345</v>
       </c>
       <c r="D3" t="n">
-        <v>100</v>
+        <v>234</v>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>4800</v>
+        <v>4690</v>
       </c>
       <c r="H3" t="n">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="I3" t="n">
-        <v>5000</v>
+        <v>4924</v>
       </c>
     </row>
     <row r="4">
@@ -558,157 +558,25 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2000</v>
+        <v>1234</v>
       </c>
       <c r="D4" t="n">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="E4" t="n">
         <v>3</v>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G4" t="n">
-        <v>6000</v>
+        <v>3702</v>
       </c>
       <c r="H4" t="n">
-        <v>1000</v>
+        <v>492</v>
       </c>
       <c r="I4" t="n">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>SNAKE</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>SOLID</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1500</v>
-      </c>
-      <c r="D5" t="n">
-        <v>150</v>
-      </c>
-      <c r="E5" t="n">
-        <v>5</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" t="n">
-        <v>7500</v>
-      </c>
-      <c r="H5" t="n">
-        <v>150</v>
-      </c>
-      <c r="I5" t="n">
-        <v>7650</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>SNAKE</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1400</v>
-      </c>
-      <c r="D6" t="n">
-        <v>120</v>
-      </c>
-      <c r="E6" t="n">
-        <v>6</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>8400</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>8400</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>SNAKE</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>SOLIDUS</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1700</v>
-      </c>
-      <c r="D7" t="n">
-        <v>140</v>
-      </c>
-      <c r="E7" t="n">
-        <v>3</v>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
-      </c>
-      <c r="G7" t="n">
-        <v>5100</v>
-      </c>
-      <c r="H7" t="n">
-        <v>980</v>
-      </c>
-      <c r="I7" t="n">
-        <v>6080</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>SNAKE</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>NAKED</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1300</v>
-      </c>
-      <c r="D8" t="n">
-        <v>100</v>
-      </c>
-      <c r="E8" t="n">
-        <v>3</v>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
-      </c>
-      <c r="G8" t="n">
-        <v>3900</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I8" t="n">
-        <v>4900</v>
+        <v>4194</v>
       </c>
     </row>
   </sheetData>

--- a/payslips.xlsx
+++ b/payslips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,100 +483,364 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>EMMERICH</t>
+          <t>BOSS</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>HAL</t>
+          <t>BIG</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1234</v>
+        <v>1200</v>
       </c>
       <c r="D2" t="n">
-        <v>123</v>
+        <v>80</v>
       </c>
       <c r="E2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" t="n">
         <v>3</v>
       </c>
-      <c r="F2" t="n">
-        <v>5</v>
-      </c>
       <c r="G2" t="n">
-        <v>3702</v>
+        <v>4800</v>
       </c>
       <c r="H2" t="n">
-        <v>615</v>
+        <v>240</v>
       </c>
       <c r="I2" t="n">
-        <v>4317</v>
+        <v>5040</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>OCELOT</t>
+          <t>CAMPBELL</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>REVOLVER</t>
+          <t>ROY</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2345</v>
+        <v>1000</v>
       </c>
       <c r="D3" t="n">
-        <v>234</v>
+        <v>75</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>4690</v>
+        <v>6000</v>
       </c>
       <c r="H3" t="n">
-        <v>234</v>
+        <v>75</v>
       </c>
       <c r="I3" t="n">
-        <v>4924</v>
+        <v>6075</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SILVERBURGH</t>
+          <t>EMMERICH</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MERYL</t>
+          <t>HAL</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1234</v>
+        <v>1100</v>
       </c>
       <c r="D4" t="n">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="E4" t="n">
         <v>3</v>
       </c>
       <c r="F4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3300</v>
+      </c>
+      <c r="H4" t="n">
+        <v>350</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3650</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>HUNTER</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>NAOMI</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1400</v>
+      </c>
+      <c r="D5" t="n">
+        <v>100</v>
+      </c>
+      <c r="E5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>7000</v>
+      </c>
+      <c r="H5" t="n">
+        <v>100</v>
+      </c>
+      <c r="I5" t="n">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>MANTIS</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>PSYCHO</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1150</v>
+      </c>
+      <c r="D6" t="n">
+        <v>90</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2300</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>OCELOT</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>REVOLVER</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1050</v>
+      </c>
+      <c r="D7" t="n">
+        <v>80</v>
+      </c>
+      <c r="E7" t="n">
         <v>4</v>
       </c>
-      <c r="G4" t="n">
-        <v>3702</v>
-      </c>
-      <c r="H4" t="n">
-        <v>492</v>
-      </c>
-      <c r="I4" t="n">
-        <v>4194</v>
+      <c r="F7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4200</v>
+      </c>
+      <c r="H7" t="n">
+        <v>160</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4360</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>SILVERBURGH</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>MERYL</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D8" t="n">
+        <v>75</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2000</v>
+      </c>
+      <c r="H8" t="n">
+        <v>225</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>SNAKE</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>SOLID</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D9" t="n">
+        <v>70</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" t="n">
+        <v>4000</v>
+      </c>
+      <c r="H9" t="n">
+        <v>140</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4140</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>SNAKE</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>LIQUID</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1200</v>
+      </c>
+      <c r="D10" t="n">
+        <v>85</v>
+      </c>
+      <c r="E10" t="n">
+        <v>7</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4</v>
+      </c>
+      <c r="G10" t="n">
+        <v>8400</v>
+      </c>
+      <c r="H10" t="n">
+        <v>340</v>
+      </c>
+      <c r="I10" t="n">
+        <v>8740</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>SNAKE</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>SOLIDUS</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1250</v>
+      </c>
+      <c r="D11" t="n">
+        <v>95</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3</v>
+      </c>
+      <c r="F11" t="n">
+        <v>7</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3750</v>
+      </c>
+      <c r="H11" t="n">
+        <v>665</v>
+      </c>
+      <c r="I11" t="n">
+        <v>4415</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>WOLF</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>SNIPER</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1100</v>
+      </c>
+      <c r="D12" t="n">
+        <v>80</v>
+      </c>
+      <c r="E12" t="n">
+        <v>5</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" t="n">
+        <v>5500</v>
+      </c>
+      <c r="H12" t="n">
+        <v>160</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5660</v>
       </c>
     </row>
   </sheetData>

--- a/payslips.xlsx
+++ b/payslips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,359 +488,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BIG</t>
+          <t xml:space="preserve"> BIG</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1200</v>
+        <v>1234</v>
       </c>
       <c r="D2" t="n">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4800</v>
+        <v>3702</v>
       </c>
       <c r="H2" t="n">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5040</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>CAMPBELL</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ROY</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D3" t="n">
-        <v>75</v>
-      </c>
-      <c r="E3" t="n">
-        <v>6</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" t="n">
-        <v>6000</v>
-      </c>
-      <c r="H3" t="n">
-        <v>75</v>
-      </c>
-      <c r="I3" t="n">
-        <v>6075</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>EMMERICH</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>HAL</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1100</v>
-      </c>
-      <c r="D4" t="n">
-        <v>70</v>
-      </c>
-      <c r="E4" t="n">
-        <v>3</v>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
-      </c>
-      <c r="G4" t="n">
-        <v>3300</v>
-      </c>
-      <c r="H4" t="n">
-        <v>350</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3650</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>HUNTER</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>NAOMI</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1400</v>
-      </c>
-      <c r="D5" t="n">
-        <v>100</v>
-      </c>
-      <c r="E5" t="n">
-        <v>5</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" t="n">
-        <v>7000</v>
-      </c>
-      <c r="H5" t="n">
-        <v>100</v>
-      </c>
-      <c r="I5" t="n">
-        <v>7100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>MANTIS</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>PSYCHO</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1150</v>
-      </c>
-      <c r="D6" t="n">
-        <v>90</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>2300</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>OCELOT</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>REVOLVER</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1050</v>
-      </c>
-      <c r="D7" t="n">
-        <v>80</v>
-      </c>
-      <c r="E7" t="n">
-        <v>4</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2</v>
-      </c>
-      <c r="G7" t="n">
-        <v>4200</v>
-      </c>
-      <c r="H7" t="n">
-        <v>160</v>
-      </c>
-      <c r="I7" t="n">
-        <v>4360</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>SILVERBURGH</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>MERYL</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D8" t="n">
-        <v>75</v>
-      </c>
-      <c r="E8" t="n">
-        <v>2</v>
-      </c>
-      <c r="F8" t="n">
-        <v>3</v>
-      </c>
-      <c r="G8" t="n">
-        <v>2000</v>
-      </c>
-      <c r="H8" t="n">
-        <v>225</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2225</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>SNAKE</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>SOLID</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D9" t="n">
-        <v>70</v>
-      </c>
-      <c r="E9" t="n">
-        <v>4</v>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
-      </c>
-      <c r="G9" t="n">
-        <v>4000</v>
-      </c>
-      <c r="H9" t="n">
-        <v>140</v>
-      </c>
-      <c r="I9" t="n">
-        <v>4140</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>SNAKE</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>LIQUID</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1200</v>
-      </c>
-      <c r="D10" t="n">
-        <v>85</v>
-      </c>
-      <c r="E10" t="n">
-        <v>7</v>
-      </c>
-      <c r="F10" t="n">
-        <v>4</v>
-      </c>
-      <c r="G10" t="n">
-        <v>8400</v>
-      </c>
-      <c r="H10" t="n">
-        <v>340</v>
-      </c>
-      <c r="I10" t="n">
-        <v>8740</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>SNAKE</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>SOLIDUS</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>1250</v>
-      </c>
-      <c r="D11" t="n">
-        <v>95</v>
-      </c>
-      <c r="E11" t="n">
-        <v>3</v>
-      </c>
-      <c r="F11" t="n">
-        <v>7</v>
-      </c>
-      <c r="G11" t="n">
-        <v>3750</v>
-      </c>
-      <c r="H11" t="n">
-        <v>665</v>
-      </c>
-      <c r="I11" t="n">
-        <v>4415</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>WOLF</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>SNIPER</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>1100</v>
-      </c>
-      <c r="D12" t="n">
-        <v>80</v>
-      </c>
-      <c r="E12" t="n">
-        <v>5</v>
-      </c>
-      <c r="F12" t="n">
-        <v>2</v>
-      </c>
-      <c r="G12" t="n">
-        <v>5500</v>
-      </c>
-      <c r="H12" t="n">
-        <v>160</v>
-      </c>
-      <c r="I12" t="n">
-        <v>5660</v>
+        <v>3702</v>
       </c>
     </row>
   </sheetData>

--- a/payslips.xlsx
+++ b/payslips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,34 +483,166 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BOSS</t>
+          <t>SNAKE</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BIG</t>
+          <t>SOLID</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1234</v>
+        <v>1000</v>
       </c>
       <c r="D2" t="n">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2" t="n">
+        <v>4000</v>
+      </c>
+      <c r="H2" t="n">
+        <v>500</v>
+      </c>
+      <c r="I2" t="n">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>EMMERICH</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>HAL</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D3" t="n">
+        <v>100</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="H3" t="n">
+        <v>500</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>MANTIS</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>PSYCHO</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>800</v>
+      </c>
+      <c r="D4" t="n">
+        <v>80</v>
+      </c>
+      <c r="E4" t="n">
         <v>3</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>3702</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>3702</v>
+      <c r="F4" t="n">
+        <v>6</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2400</v>
+      </c>
+      <c r="H4" t="n">
+        <v>480</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CAMPBELL</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ROY</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D5" t="n">
+        <v>150</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" t="n">
+        <v>7</v>
+      </c>
+      <c r="G5" t="n">
+        <v>6000</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1050</v>
+      </c>
+      <c r="I5" t="n">
+        <v>7050</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>SILVERBURGH</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>MERYL</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1100</v>
+      </c>
+      <c r="D6" t="n">
+        <v>110</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F6" t="n">
+        <v>6</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3300</v>
+      </c>
+      <c r="H6" t="n">
+        <v>660</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3960</v>
       </c>
     </row>
   </sheetData>
